--- a/10_参考資料/02_Inventeksys/AT_Command_Set_DOC-_英語読解.xlsx
+++ b/10_参考資料/02_Inventeksys/AT_Command_Set_DOC-_英語読解.xlsx
@@ -410,25 +410,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.　マイコンから、"C1"で始まるATコマンドを打つことでネットワーク設定の概要を知ることができます。</t>
-    <rPh sb="15" eb="16">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.　"DirectConnection"を設定することで、プライベートなネットワークを構築できます。</t>
     <rPh sb="22" eb="24">
       <t>セッテイ</t>
@@ -1162,6 +1143,19 @@
     </r>
     <rPh sb="10" eb="12">
       <t>ベンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.　マイコンより、"C1"コマンドから順に指定していく手段。</t>
+    <rPh sb="20" eb="21">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュダン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7956,7 +7950,7 @@
       <c r="R149" s="6"/>
       <c r="S149" s="3"/>
       <c r="T149" s="10" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
@@ -8016,7 +8010,7 @@
       <c r="R151" s="6"/>
       <c r="S151" s="3"/>
       <c r="T151" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
@@ -8047,7 +8041,7 @@
       <c r="R152" s="6"/>
       <c r="S152" s="3"/>
       <c r="T152" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
@@ -8078,7 +8072,7 @@
       <c r="R153" s="6"/>
       <c r="S153" s="3"/>
       <c r="T153" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
@@ -8314,7 +8308,7 @@
       <c r="R161" s="6"/>
       <c r="S161" s="3"/>
       <c r="T161" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U161" s="3"/>
       <c r="V161" s="3"/>
@@ -8345,7 +8339,7 @@
       <c r="R162" s="6"/>
       <c r="S162" s="3"/>
       <c r="T162" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U162" s="3"/>
       <c r="V162" s="3"/>
@@ -8376,7 +8370,7 @@
       <c r="R163" s="6"/>
       <c r="S163" s="3"/>
       <c r="T163" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U163" s="3"/>
       <c r="V163" s="3"/>
@@ -8407,7 +8401,7 @@
       <c r="R164" s="6"/>
       <c r="S164" s="3"/>
       <c r="T164" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U164" s="3"/>
       <c r="V164" s="3"/>
@@ -8438,7 +8432,7 @@
       <c r="R165" s="6"/>
       <c r="S165" s="3"/>
       <c r="T165" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
@@ -8498,7 +8492,7 @@
       <c r="R167" s="6"/>
       <c r="S167" s="3"/>
       <c r="T167" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
@@ -8529,7 +8523,7 @@
       <c r="R168" s="6"/>
       <c r="S168" s="3"/>
       <c r="T168" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U168" s="3"/>
       <c r="V168" s="3"/>
@@ -9345,7 +9339,7 @@
       <c r="R196" s="6"/>
       <c r="S196" s="3"/>
       <c r="T196" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
@@ -9376,7 +9370,7 @@
       <c r="R197" s="6"/>
       <c r="S197" s="3"/>
       <c r="T197" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
@@ -9436,7 +9430,7 @@
       <c r="R199" s="6"/>
       <c r="S199" s="3"/>
       <c r="T199" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
@@ -9467,7 +9461,7 @@
       <c r="R200" s="6"/>
       <c r="S200" s="3"/>
       <c r="T200" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
@@ -9498,7 +9492,7 @@
       <c r="R201" s="6"/>
       <c r="S201" s="3"/>
       <c r="T201" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
@@ -9908,7 +9902,7 @@
       <c r="R215" s="6"/>
       <c r="S215" s="3"/>
       <c r="T215" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U215" s="3"/>
       <c r="V215" s="3"/>
@@ -9939,7 +9933,7 @@
       <c r="R216" s="6"/>
       <c r="S216" s="3"/>
       <c r="T216" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
@@ -10320,7 +10314,7 @@
       <c r="R229" s="6"/>
       <c r="S229" s="3"/>
       <c r="T229" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U229" s="3"/>
       <c r="V229" s="3"/>
@@ -10409,7 +10403,7 @@
       <c r="R232" s="6"/>
       <c r="S232" s="3"/>
       <c r="T232" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U232" s="3"/>
       <c r="V232" s="3"/>
@@ -11544,7 +11538,7 @@
       <c r="R271" s="6"/>
       <c r="S271" s="3"/>
       <c r="T271" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U271" s="3"/>
       <c r="V271" s="3"/>
@@ -11604,7 +11598,7 @@
       <c r="R273" s="6"/>
       <c r="S273" s="3"/>
       <c r="T273" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U273" s="3"/>
       <c r="V273" s="3"/>
@@ -12681,7 +12675,7 @@
       <c r="R310" s="6"/>
       <c r="S310" s="3"/>
       <c r="T310" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U310" s="3"/>
       <c r="V310" s="3"/>
@@ -12770,11 +12764,11 @@
       <c r="R313" s="6"/>
       <c r="S313" s="3"/>
       <c r="T313" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U313" s="3"/>
       <c r="V313" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W313" s="3"/>
       <c r="X313" s="3"/>
@@ -12803,11 +12797,11 @@
       <c r="R314" s="6"/>
       <c r="S314" s="3"/>
       <c r="T314" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U314" s="3"/>
       <c r="V314" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W314" s="3"/>
       <c r="X314" s="3"/>
@@ -12836,11 +12830,11 @@
       <c r="R315" s="6"/>
       <c r="S315" s="3"/>
       <c r="T315" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U315" s="3"/>
       <c r="V315" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W315" s="3"/>
       <c r="X315" s="3"/>
@@ -12869,11 +12863,11 @@
       <c r="R316" s="6"/>
       <c r="S316" s="3"/>
       <c r="T316" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U316" s="3"/>
       <c r="V316" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W316" s="3"/>
       <c r="X316" s="3"/>
@@ -12902,11 +12896,11 @@
       <c r="R317" s="6"/>
       <c r="S317" s="3"/>
       <c r="T317" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U317" s="3"/>
       <c r="V317" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W317" s="3"/>
       <c r="X317" s="3"/>
@@ -12935,11 +12929,11 @@
       <c r="R318" s="6"/>
       <c r="S318" s="3"/>
       <c r="T318" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U318" s="3"/>
       <c r="V318" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W318" s="3"/>
       <c r="X318" s="3"/>
@@ -12968,11 +12962,11 @@
       <c r="R319" s="6"/>
       <c r="S319" s="3"/>
       <c r="T319" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U319" s="3"/>
       <c r="V319" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W319" s="3"/>
       <c r="X319" s="3"/>
@@ -13117,7 +13111,7 @@
       <c r="R324" s="6"/>
       <c r="S324" s="3"/>
       <c r="T324" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U324" s="3"/>
       <c r="V324" s="3"/>
@@ -13148,7 +13142,7 @@
       <c r="R325" s="6"/>
       <c r="S325" s="3"/>
       <c r="T325" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U325" s="3"/>
       <c r="V325" s="3"/>
@@ -13471,7 +13465,7 @@
       <c r="R336" s="6"/>
       <c r="S336" s="3"/>
       <c r="T336" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U336" s="3"/>
       <c r="V336" s="3"/>
@@ -13531,7 +13525,7 @@
       <c r="R338" s="6"/>
       <c r="S338" s="3"/>
       <c r="T338" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U338" s="3"/>
       <c r="V338" s="3"/>
@@ -14144,7 +14138,7 @@
       <c r="R359" s="6"/>
       <c r="S359" s="3"/>
       <c r="T359" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U359" s="3"/>
       <c r="V359" s="3"/>
@@ -14175,7 +14169,7 @@
       <c r="R360" s="6"/>
       <c r="S360" s="3"/>
       <c r="T360" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U360" s="3"/>
       <c r="V360" s="3"/>
@@ -14206,7 +14200,7 @@
       <c r="R361" s="6"/>
       <c r="S361" s="3"/>
       <c r="T361" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U361" s="3"/>
       <c r="V361" s="3"/>
@@ -14237,13 +14231,13 @@
       <c r="R362" s="6"/>
       <c r="S362" s="3"/>
       <c r="T362" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U362" s="3"/>
       <c r="V362" s="3"/>
       <c r="W362" s="3"/>
       <c r="X362" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y362" s="3"/>
       <c r="Z362" s="3"/>
@@ -14561,17 +14555,17 @@
       <c r="S373" s="3"/>
       <c r="T373" s="3"/>
       <c r="U373" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V373" s="3"/>
       <c r="W373" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="X373" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="X373" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="Y373" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z373" s="3"/>
       <c r="AA373" s="3"/>
@@ -14656,7 +14650,7 @@
       <c r="S376" s="3"/>
       <c r="T376" s="3"/>
       <c r="U376" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V376" s="3"/>
       <c r="W376" s="3"/>
@@ -14918,10 +14912,10 @@
       <c r="R385" s="6"/>
       <c r="S385" s="3"/>
       <c r="T385" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U385" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V385" s="3"/>
       <c r="W385" s="3"/>
@@ -14951,10 +14945,10 @@
       <c r="R386" s="6"/>
       <c r="S386" s="3"/>
       <c r="T386" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U386" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V386" s="3"/>
       <c r="W386" s="3"/>
@@ -14984,10 +14978,10 @@
       <c r="R387" s="6"/>
       <c r="S387" s="3"/>
       <c r="T387" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U387" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V387" s="3"/>
       <c r="W387" s="3"/>
@@ -15017,10 +15011,10 @@
       <c r="R388" s="6"/>
       <c r="S388" s="3"/>
       <c r="T388" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U388" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V388" s="3"/>
       <c r="W388" s="3"/>
@@ -15050,10 +15044,10 @@
       <c r="R389" s="6"/>
       <c r="S389" s="3"/>
       <c r="T389" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U389" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V389" s="3"/>
       <c r="W389" s="3"/>
@@ -15083,10 +15077,10 @@
       <c r="R390" s="6"/>
       <c r="S390" s="3"/>
       <c r="T390" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U390" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V390" s="3"/>
       <c r="W390" s="3"/>
@@ -15116,10 +15110,10 @@
       <c r="R391" s="6"/>
       <c r="S391" s="3"/>
       <c r="T391" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U391" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V391" s="3"/>
       <c r="W391" s="3"/>
@@ -15470,7 +15464,7 @@
       <c r="R403" s="6"/>
       <c r="S403" s="3"/>
       <c r="T403" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U403" s="3"/>
       <c r="V403" s="3"/>
@@ -15646,7 +15640,7 @@
       <c r="R409" s="6"/>
       <c r="S409" s="3"/>
       <c r="T409" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U409" s="3"/>
       <c r="V409" s="3"/>
@@ -15793,7 +15787,7 @@
       <c r="R414" s="6"/>
       <c r="S414" s="3"/>
       <c r="T414" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U414" s="3"/>
       <c r="V414" s="3"/>
@@ -15824,7 +15818,7 @@
       <c r="R415" s="6"/>
       <c r="S415" s="3"/>
       <c r="T415" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U415" s="3"/>
       <c r="V415" s="3"/>
@@ -15971,7 +15965,7 @@
       <c r="R420" s="6"/>
       <c r="S420" s="3"/>
       <c r="T420" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U420" s="3"/>
       <c r="V420" s="3"/>
@@ -16002,7 +15996,7 @@
       <c r="R421" s="6"/>
       <c r="S421" s="3"/>
       <c r="T421" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U421" s="3"/>
       <c r="V421" s="3"/>
@@ -16062,7 +16056,7 @@
       <c r="R423" s="6"/>
       <c r="S423" s="3"/>
       <c r="T423" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U423" s="3"/>
       <c r="V423" s="3"/>
@@ -16180,7 +16174,7 @@
       <c r="R427" s="6"/>
       <c r="S427" s="3"/>
       <c r="T427" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U427" s="3"/>
       <c r="V427" s="3"/>
@@ -16211,7 +16205,7 @@
       <c r="R428" s="6"/>
       <c r="S428" s="3"/>
       <c r="T428" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U428" s="3"/>
       <c r="V428" s="3"/>
@@ -16387,7 +16381,7 @@
       <c r="R434" s="6"/>
       <c r="S434" s="3"/>
       <c r="T434" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U434" s="3"/>
       <c r="V434" s="3"/>
@@ -16418,7 +16412,7 @@
       <c r="R435" s="6"/>
       <c r="S435" s="3"/>
       <c r="T435" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U435" s="3"/>
       <c r="V435" s="3"/>
@@ -16449,7 +16443,7 @@
       <c r="R436" s="6"/>
       <c r="S436" s="3"/>
       <c r="T436" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U436" s="3"/>
       <c r="V436" s="3"/>
@@ -16480,7 +16474,7 @@
       <c r="R437" s="6"/>
       <c r="S437" s="3"/>
       <c r="T437" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U437" s="3"/>
       <c r="V437" s="3"/>
@@ -16716,12 +16710,12 @@
       <c r="R445" s="6"/>
       <c r="S445" s="3"/>
       <c r="T445" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U445" s="3"/>
       <c r="V445" s="3"/>
       <c r="W445" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X445" s="3"/>
       <c r="Y445" s="3"/>
@@ -16749,7 +16743,7 @@
       <c r="R446" s="6"/>
       <c r="S446" s="3"/>
       <c r="T446" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U446" s="3"/>
       <c r="V446" s="3"/>
@@ -16780,7 +16774,7 @@
       <c r="R447" s="6"/>
       <c r="S447" s="3"/>
       <c r="T447" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U447" s="3"/>
       <c r="V447" s="3"/>
@@ -17306,7 +17300,7 @@
       <c r="R465" s="6"/>
       <c r="S465" s="3"/>
       <c r="T465" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U465" s="3"/>
       <c r="V465" s="3"/>
@@ -17656,7 +17650,7 @@
       <c r="R477" s="6"/>
       <c r="S477" s="3"/>
       <c r="T477" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U477" s="3"/>
       <c r="V477" s="3"/>
@@ -17687,7 +17681,7 @@
       <c r="R478" s="6"/>
       <c r="S478" s="3"/>
       <c r="T478" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U478" s="3"/>
       <c r="V478" s="3"/>
@@ -17718,7 +17712,7 @@
       <c r="R479" s="6"/>
       <c r="S479" s="3"/>
       <c r="T479" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U479" s="3"/>
       <c r="V479" s="3"/>
@@ -17778,7 +17772,7 @@
       <c r="R481" s="6"/>
       <c r="S481" s="3"/>
       <c r="T481" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U481" s="3"/>
       <c r="V481" s="3"/>
@@ -17952,7 +17946,7 @@
       <c r="P487" s="3"/>
       <c r="Q487" s="3"/>
       <c r="R487" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S487" s="3"/>
       <c r="T487" s="3"/>
